--- a/Iris-app-jilu/src/main/webapp/WEB-INF/download/产品模板.xlsx
+++ b/Iris-app-jilu/src/main/webapp/WEB-INF/download/产品模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>条形码（必须）</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>中文品牌</t>
+  </si>
+  <si>
+    <t>英文品牌</t>
   </si>
   <si>
     <t>计量单位</t>
@@ -62,12 +65,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,44 +89,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,6 +117,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -213,23 +209,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,19 +240,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,78 +288,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -358,13 +354,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,54 +421,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,148 +536,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -745,6 +741,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1029,17 +1030,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1049,13 +1049,13 @@
     <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="10" max="11" width="9.875" customWidth="1"/>
+    <col min="6" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="11" max="12" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47" customHeight="1" spans="1:12">
+    <row r="1" ht="47" customHeight="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1091,16 +1091,19 @@
       </c>
       <c r="L1" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="36" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Iris-app-jilu/src/main/webapp/WEB-INF/download/产品模板.xlsx
+++ b/Iris-app-jilu/src/main/webapp/WEB-INF/download/产品模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>条形码（必须）</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>sku</t>
-  </si>
-  <si>
-    <t>barcode</t>
   </si>
   <si>
     <t>单价</t>
@@ -65,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -88,15 +85,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,6 +113,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -125,41 +151,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,7 +184,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,6 +206,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -203,29 +222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,187 +237,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,6 +428,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -451,59 +466,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,8 +493,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,10 +536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,26 +1033,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L1" sqref="L$1:L$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="13.5044247787611" customWidth="1"/>
+    <col min="2" max="2" width="17.7522123893805" customWidth="1"/>
+    <col min="3" max="3" width="13.7522123893805" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="11" max="12" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="10.1238938053097" customWidth="1"/>
+    <col min="6" max="7" width="10.7522123893805" customWidth="1"/>
+    <col min="8" max="8" width="10.2477876106195" customWidth="1"/>
+    <col min="9" max="9" width="10.5044247787611" customWidth="1"/>
+    <col min="11" max="11" width="9.87610619469027" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47" customHeight="1" spans="1:13">
+    <row r="1" ht="47" customHeight="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1091,19 +1088,16 @@
       </c>
       <c r="L1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" ht="36" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A2:L2"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Iris-app-jilu/src/main/webapp/WEB-INF/download/产品模板.xlsx
+++ b/Iris-app-jilu/src/main/webapp/WEB-INF/download/产品模板.xlsx
@@ -27,6 +27,9 @@
     <t>规格（必须）</t>
   </si>
   <si>
+    <t>产品唯一ID（SKU）</t>
+  </si>
+  <si>
     <t>英文名称</t>
   </si>
   <si>
@@ -48,13 +51,10 @@
     <t>别名</t>
   </si>
   <si>
-    <t>sku</t>
-  </si>
-  <si>
     <t>单价</t>
   </si>
   <si>
-    <t>注:有“必须”标记的列是必须有内容的；其它列可以根据需要选择输入；添加数据就按这个模板往下加即从“第三行”开始</t>
+    <t>注:有“必须”标记的列是必须有内容的；其它列可以根据需要选择输入；添加数据就按这个模板往下加即从“第三行”开始；如果是新增产品，唯一ID（SKU）留空</t>
   </si>
 </sst>
 </file>
@@ -62,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -81,20 +81,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,38 +92,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,21 +121,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,9 +132,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,36 +227,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -237,79 +237,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,103 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,8 +434,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,33 +444,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,9 +466,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,6 +501,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,10 +536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -682,8 +682,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1036,20 +1036,20 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L$1:L$1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="13.5044247787611" customWidth="1"/>
-    <col min="2" max="2" width="17.7522123893805" customWidth="1"/>
-    <col min="3" max="3" width="13.7522123893805" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="10.1238938053097" customWidth="1"/>
-    <col min="6" max="7" width="10.7522123893805" customWidth="1"/>
-    <col min="8" max="8" width="10.2477876106195" customWidth="1"/>
-    <col min="9" max="9" width="10.5044247787611" customWidth="1"/>
-    <col min="11" max="11" width="9.87610619469027" customWidth="1"/>
+    <col min="1" max="1" width="17.6637168141593" customWidth="1"/>
+    <col min="2" max="2" width="17.1946902654867" customWidth="1"/>
+    <col min="3" max="3" width="17.7522123893805" customWidth="1"/>
+    <col min="4" max="4" width="20.3805309734513" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="10.1238938053097" customWidth="1"/>
+    <col min="7" max="8" width="10.7522123893805" customWidth="1"/>
+    <col min="9" max="9" width="10.2477876106195" customWidth="1"/>
+    <col min="10" max="10" width="10.5044247787611" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="1:12">
@@ -1090,10 +1090,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="36" customHeight="1" spans="1:1">
+    <row r="2" ht="36" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
